--- a/analytics/Problem 10.xlsx
+++ b/analytics/Problem 10.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apu/Documents/AndreyPudov/leetcode/analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4673D15-1E3C-854D-B29E-DAB78B9901CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC4F560-8D82-4E4F-BA55-EB4FBB1ABB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7960" yWindow="1260" windowWidth="22540" windowHeight="18720" xr2:uid="{43FAE6EE-22B1-C845-A25C-3534ED84BAA5}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
   <si>
     <t>m</t>
   </si>
@@ -93,6 +93,15 @@
   </si>
   <si>
     <t>i*</t>
+  </si>
+  <si>
+    <t>.*c</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>bbbba</t>
   </si>
 </sst>
 </file>
@@ -521,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0239EB-22C6-AB49-8F5F-702F95656B93}">
-  <dimension ref="A1:AA51"/>
+  <dimension ref="A1:AA70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1129,8 +1138,11 @@
       <c r="A48" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>7</v>
       </c>
@@ -1138,12 +1150,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>7</v>
       </c>
@@ -1151,10 +1166,181 @@
         <v>1</v>
       </c>
     </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B54" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="6"/>
+      <c r="N54" s="6"/>
+      <c r="O54" s="6"/>
+      <c r="P54" s="6"/>
+      <c r="Q54" s="6"/>
+      <c r="R54" s="6"/>
+      <c r="S54" s="6"/>
+      <c r="T54" s="6"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="6"/>
+      <c r="W54" s="6"/>
+      <c r="X54" s="6"/>
+      <c r="Y54" s="6"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B55" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B56" s="7">
+        <v>1</v>
+      </c>
+      <c r="C56" s="7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C57" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B60" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
+      <c r="K60" s="6"/>
+      <c r="L60" s="6"/>
+      <c r="M60" s="6"/>
+      <c r="N60" s="6"/>
+      <c r="O60" s="6"/>
+      <c r="P60" s="6"/>
+      <c r="Q60" s="6"/>
+      <c r="R60" s="6"/>
+      <c r="S60" s="6"/>
+      <c r="T60" s="6"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="6"/>
+      <c r="W60" s="6"/>
+      <c r="X60" s="6"/>
+      <c r="Y60" s="6"/>
+      <c r="Z60" s="6"/>
+      <c r="AA60" s="6"/>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B61" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B62" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B66" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="6"/>
+      <c r="L66" s="6"/>
+      <c r="M66" s="6"/>
+      <c r="N66" s="6"/>
+      <c r="O66" s="6"/>
+      <c r="P66" s="6"/>
+      <c r="Q66" s="6"/>
+      <c r="R66" s="6"/>
+      <c r="S66" s="6"/>
+      <c r="T66" s="6"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="6"/>
+      <c r="W66" s="6"/>
+      <c r="X66" s="6"/>
+      <c r="Y66" s="6"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E70" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="9">
     <mergeCell ref="B35:AA35"/>
     <mergeCell ref="B45:AA45"/>
+    <mergeCell ref="B54:AA54"/>
+    <mergeCell ref="B60:AA60"/>
+    <mergeCell ref="B66:AA66"/>
     <mergeCell ref="B19:AA19"/>
     <mergeCell ref="B30:AA30"/>
     <mergeCell ref="B1:AA1"/>

--- a/analytics/Problem 10.xlsx
+++ b/analytics/Problem 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apu/Documents/AndreyPudov/leetcode/analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC4F560-8D82-4E4F-BA55-EB4FBB1ABB20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41486737-8161-FD4B-AF10-38F4C8A62FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7960" yWindow="1260" windowWidth="22540" windowHeight="18720" xr2:uid="{43FAE6EE-22B1-C845-A25C-3534ED84BAA5}"/>
+    <workbookView xWindow="7260" yWindow="1780" windowWidth="22540" windowHeight="18720" xr2:uid="{43FAE6EE-22B1-C845-A25C-3534ED84BAA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Overflow" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
   <si>
     <t>m</t>
   </si>
@@ -102,6 +102,9 @@
   </si>
   <si>
     <t>bbbba</t>
+  </si>
+  <si>
+    <t>ba</t>
   </si>
 </sst>
 </file>
@@ -530,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0239EB-22C6-AB49-8F5F-702F95656B93}">
-  <dimension ref="A1:AA70"/>
+  <dimension ref="A1:AA77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1273,7 +1276,7 @@
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B66" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -1306,12 +1309,6 @@
         <v>14</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1320,22 +1317,117 @@
         <v>16</v>
       </c>
       <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
     </row>
     <row r="69" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="C69" s="3"/>
     </row>
     <row r="70" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E70" s="3"/>
+      <c r="C70" s="3"/>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="6"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
+      <c r="K73" s="6"/>
+      <c r="L73" s="6"/>
+      <c r="M73" s="6"/>
+      <c r="N73" s="6"/>
+      <c r="O73" s="6"/>
+      <c r="P73" s="6"/>
+      <c r="Q73" s="6"/>
+      <c r="R73" s="6"/>
+      <c r="S73" s="6"/>
+      <c r="T73" s="6"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="6"/>
+      <c r="W73" s="6"/>
+      <c r="X73" s="6"/>
+      <c r="Y73" s="6"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B75" s="3">
+        <v>1</v>
+      </c>
+      <c r="C75" s="3">
+        <v>2</v>
+      </c>
+      <c r="D75" s="3">
+        <v>3</v>
+      </c>
+      <c r="E75" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" s="3">
+        <v>1</v>
+      </c>
+      <c r="D76" s="3">
+        <v>2</v>
+      </c>
+      <c r="E76" s="3">
+        <v>3</v>
+      </c>
+      <c r="F76" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77" s="7">
+        <v>1</v>
+      </c>
+      <c r="D77" s="7">
+        <v>2</v>
+      </c>
+      <c r="E77" s="7">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="10">
+    <mergeCell ref="B73:AA73"/>
     <mergeCell ref="B35:AA35"/>
     <mergeCell ref="B45:AA45"/>
     <mergeCell ref="B54:AA54"/>

--- a/analytics/Problem 10.xlsx
+++ b/analytics/Problem 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apu/Documents/AndreyPudov/leetcode/analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41486737-8161-FD4B-AF10-38F4C8A62FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154C7C8-84A2-A348-A330-775426051B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="1780" windowWidth="22540" windowHeight="18720" xr2:uid="{43FAE6EE-22B1-C845-A25C-3534ED84BAA5}"/>
+    <workbookView xWindow="1960" yWindow="1540" windowWidth="22540" windowHeight="18720" xr2:uid="{43FAE6EE-22B1-C845-A25C-3534ED84BAA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Overflow" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="24">
   <si>
     <t>m</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>ba</t>
+  </si>
+  <si>
+    <t>bbab</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -165,28 +168,19 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -207,16 +201,16 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -533,10 +527,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0239EB-22C6-AB49-8F5F-702F95656B93}">
-  <dimension ref="A1:AA77"/>
+  <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="D84" sqref="D84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,34 +539,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
-      <c r="U1" s="6"/>
-      <c r="V1" s="6"/>
-      <c r="W1" s="6"/>
-      <c r="X1" s="6"/>
-      <c r="Y1" s="6"/>
-      <c r="Z1" s="6"/>
-      <c r="AA1" s="6"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="7"/>
+      <c r="V1" s="7"/>
+      <c r="W1" s="7"/>
+      <c r="X1" s="7"/>
+      <c r="Y1" s="7"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="7"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -619,34 +613,34 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
+      <c r="Z8" s="7"/>
+      <c r="AA8" s="7"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -738,34 +732,34 @@
       <c r="L16" s="3"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
-      <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
-      <c r="AA19" s="6"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="7"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
+      <c r="AA19" s="7"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -887,7 +881,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>3</v>
       </c>
@@ -895,43 +889,43 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="8">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
+      <c r="B30" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="6"/>
-      <c r="Q30" s="6"/>
-      <c r="R30" s="6"/>
-      <c r="S30" s="6"/>
-      <c r="T30" s="6"/>
-      <c r="U30" s="6"/>
-      <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="6"/>
-      <c r="Y30" s="6"/>
-      <c r="Z30" s="6"/>
-      <c r="AA30" s="6"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="7"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
+      <c r="AA30" s="7"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
@@ -953,34 +947,34 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-      <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-      <c r="X35" s="6"/>
-      <c r="Y35" s="6"/>
-      <c r="Z35" s="6"/>
-      <c r="AA35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="7"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="7"/>
+      <c r="X35" s="7"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
+      <c r="AA35" s="7"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
@@ -1004,7 +998,7 @@
       <c r="H36" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I36" s="8" t="s">
+      <c r="I36" s="6" t="s">
         <v>1</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -1043,7 +1037,7 @@
       <c r="E39" s="3">
         <v>2</v>
       </c>
-      <c r="F39" s="7">
+      <c r="F39" s="5">
         <v>4</v>
       </c>
     </row>
@@ -1051,7 +1045,7 @@
       <c r="A40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="5">
         <v>1</v>
       </c>
       <c r="F40" s="3">
@@ -1068,18 +1062,18 @@
       <c r="H41" s="3">
         <v>3</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="5">
         <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H42" s="7">
-        <v>2</v>
-      </c>
-      <c r="I42" s="7">
+      <c r="H42" s="5">
+        <v>2</v>
+      </c>
+      <c r="I42" s="5">
         <v>3</v>
       </c>
     </row>
@@ -1089,34 +1083,34 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B45" s="6" t="s">
+      <c r="B45" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="6"/>
-      <c r="I45" s="6"/>
-      <c r="J45" s="6"/>
-      <c r="K45" s="6"/>
-      <c r="L45" s="6"/>
-      <c r="M45" s="6"/>
-      <c r="N45" s="6"/>
-      <c r="O45" s="6"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="6"/>
-      <c r="T45" s="6"/>
-      <c r="U45" s="6"/>
-      <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-      <c r="X45" s="6"/>
-      <c r="Y45" s="6"/>
-      <c r="Z45" s="6"/>
-      <c r="AA45" s="6"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
@@ -1170,34 +1164,34 @@
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="6"/>
-      <c r="L54" s="6"/>
-      <c r="M54" s="6"/>
-      <c r="N54" s="6"/>
-      <c r="O54" s="6"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="6"/>
-      <c r="T54" s="6"/>
-      <c r="U54" s="6"/>
-      <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-      <c r="X54" s="6"/>
-      <c r="Y54" s="6"/>
-      <c r="Z54" s="6"/>
-      <c r="AA54" s="6"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="7"/>
+      <c r="L54" s="7"/>
+      <c r="M54" s="7"/>
+      <c r="N54" s="7"/>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="7"/>
+      <c r="R54" s="7"/>
+      <c r="S54" s="7"/>
+      <c r="T54" s="7"/>
+      <c r="U54" s="7"/>
+      <c r="V54" s="7"/>
+      <c r="W54" s="7"/>
+      <c r="X54" s="7"/>
+      <c r="Y54" s="7"/>
+      <c r="Z54" s="7"/>
+      <c r="AA54" s="7"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
@@ -1211,10 +1205,10 @@
       <c r="A56" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B56" s="7">
-        <v>1</v>
-      </c>
-      <c r="C56" s="7">
+      <c r="B56" s="5">
+        <v>1</v>
+      </c>
+      <c r="C56" s="5">
         <v>2</v>
       </c>
     </row>
@@ -1222,39 +1216,39 @@
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C57" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B60" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
-      <c r="Y60" s="6"/>
-      <c r="Z60" s="6"/>
-      <c r="AA60" s="6"/>
+      <c r="B60" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="7"/>
+      <c r="I60" s="7"/>
+      <c r="J60" s="7"/>
+      <c r="K60" s="7"/>
+      <c r="L60" s="7"/>
+      <c r="M60" s="7"/>
+      <c r="N60" s="7"/>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="7"/>
+      <c r="R60" s="7"/>
+      <c r="S60" s="7"/>
+      <c r="T60" s="7"/>
+      <c r="U60" s="7"/>
+      <c r="V60" s="7"/>
+      <c r="W60" s="7"/>
+      <c r="X60" s="7"/>
+      <c r="Y60" s="7"/>
+      <c r="Z60" s="7"/>
+      <c r="AA60" s="7"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
@@ -1275,34 +1269,34 @@
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B66" s="6" t="s">
+      <c r="B66" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="6"/>
-      <c r="D66" s="6"/>
-      <c r="E66" s="6"/>
-      <c r="F66" s="6"/>
-      <c r="G66" s="6"/>
-      <c r="H66" s="6"/>
-      <c r="I66" s="6"/>
-      <c r="J66" s="6"/>
-      <c r="K66" s="6"/>
-      <c r="L66" s="6"/>
-      <c r="M66" s="6"/>
-      <c r="N66" s="6"/>
-      <c r="O66" s="6"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="6"/>
-      <c r="T66" s="6"/>
-      <c r="U66" s="6"/>
-      <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-      <c r="X66" s="6"/>
-      <c r="Y66" s="6"/>
-      <c r="Z66" s="6"/>
-      <c r="AA66" s="6"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="7"/>
+      <c r="I66" s="7"/>
+      <c r="J66" s="7"/>
+      <c r="K66" s="7"/>
+      <c r="L66" s="7"/>
+      <c r="M66" s="7"/>
+      <c r="N66" s="7"/>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="7"/>
+      <c r="R66" s="7"/>
+      <c r="S66" s="7"/>
+      <c r="T66" s="7"/>
+      <c r="U66" s="7"/>
+      <c r="V66" s="7"/>
+      <c r="W66" s="7"/>
+      <c r="X66" s="7"/>
+      <c r="Y66" s="7"/>
+      <c r="Z66" s="7"/>
+      <c r="AA66" s="7"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
@@ -1331,34 +1325,34 @@
       <c r="C70" s="3"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B73" s="6" t="s">
+      <c r="B73" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="6"/>
-      <c r="D73" s="6"/>
-      <c r="E73" s="6"/>
-      <c r="F73" s="6"/>
-      <c r="G73" s="6"/>
-      <c r="H73" s="6"/>
-      <c r="I73" s="6"/>
-      <c r="J73" s="6"/>
-      <c r="K73" s="6"/>
-      <c r="L73" s="6"/>
-      <c r="M73" s="6"/>
-      <c r="N73" s="6"/>
-      <c r="O73" s="6"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="6"/>
-      <c r="T73" s="6"/>
-      <c r="U73" s="6"/>
-      <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-      <c r="X73" s="6"/>
-      <c r="Y73" s="6"/>
-      <c r="Z73" s="6"/>
-      <c r="AA73" s="6"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+      <c r="H73" s="7"/>
+      <c r="I73" s="7"/>
+      <c r="J73" s="7"/>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
+      <c r="N73" s="7"/>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="7"/>
+      <c r="R73" s="7"/>
+      <c r="S73" s="7"/>
+      <c r="T73" s="7"/>
+      <c r="U73" s="7"/>
+      <c r="V73" s="7"/>
+      <c r="W73" s="7"/>
+      <c r="X73" s="7"/>
+      <c r="Y73" s="7"/>
+      <c r="Z73" s="7"/>
+      <c r="AA73" s="7"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
@@ -1415,28 +1409,95 @@
       <c r="A77" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C77" s="7">
-        <v>1</v>
-      </c>
-      <c r="D77" s="7">
-        <v>2</v>
-      </c>
-      <c r="E77" s="7">
+      <c r="C77" s="5">
+        <v>1</v>
+      </c>
+      <c r="D77" s="5">
+        <v>2</v>
+      </c>
+      <c r="E77" s="5">
         <v>3</v>
       </c>
     </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B80" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="7"/>
+      <c r="D80" s="7"/>
+      <c r="E80" s="7"/>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="7"/>
+      <c r="I80" s="7"/>
+      <c r="J80" s="7"/>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
+      <c r="N80" s="7"/>
+      <c r="O80" s="7"/>
+      <c r="P80" s="7"/>
+      <c r="Q80" s="7"/>
+      <c r="R80" s="7"/>
+      <c r="S80" s="7"/>
+      <c r="T80" s="7"/>
+      <c r="U80" s="7"/>
+      <c r="V80" s="7"/>
+      <c r="W80" s="7"/>
+      <c r="X80" s="7"/>
+      <c r="Y80" s="7"/>
+      <c r="Z80" s="7"/>
+      <c r="AA80" s="7"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B82" s="3">
+        <v>1</v>
+      </c>
+      <c r="C82" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" s="1">
+        <v>1</v>
+      </c>
+      <c r="D83" s="5">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="B19:AA19"/>
+    <mergeCell ref="B30:AA30"/>
+    <mergeCell ref="B1:AA1"/>
+    <mergeCell ref="B8:AA8"/>
+    <mergeCell ref="B80:AA80"/>
     <mergeCell ref="B73:AA73"/>
     <mergeCell ref="B35:AA35"/>
     <mergeCell ref="B45:AA45"/>
     <mergeCell ref="B54:AA54"/>
     <mergeCell ref="B60:AA60"/>
     <mergeCell ref="B66:AA66"/>
-    <mergeCell ref="B19:AA19"/>
-    <mergeCell ref="B30:AA30"/>
-    <mergeCell ref="B1:AA1"/>
-    <mergeCell ref="B8:AA8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/analytics/Problem 10.xlsx
+++ b/analytics/Problem 10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apu/Documents/AndreyPudov/leetcode/analytics/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0154C7C8-84A2-A348-A330-775426051B52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FAD38B4-C32F-B944-AA5E-32316DD213A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1960" yWindow="1540" windowWidth="22540" windowHeight="18720" xr2:uid="{43FAE6EE-22B1-C845-A25C-3534ED84BAA5}"/>
+    <workbookView xWindow="13920" yWindow="10300" windowWidth="22540" windowHeight="18720" xr2:uid="{43FAE6EE-22B1-C845-A25C-3534ED84BAA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Overflow" sheetId="1" r:id="rId1"/>
@@ -207,10 +207,10 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -529,44 +529,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E0239EB-22C6-AB49-8F5F-702F95656B93}">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
-      <selection activeCell="D84" sqref="D84"/>
+    <sheetView tabSelected="1" zoomScale="128" zoomScaleNormal="128" workbookViewId="0">
+      <selection activeCell="AG5" sqref="AB2:AG5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="27" width="2.83203125" style="1" customWidth="1"/>
+    <col min="1" max="26" width="2.83203125" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.83203125" style="1" customWidth="1"/>
+    <col min="28" max="52" width="2.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
@@ -613,34 +615,34 @@
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="7"/>
-      <c r="T8" s="7"/>
-      <c r="U8" s="7"/>
-      <c r="V8" s="7"/>
-      <c r="W8" s="7"/>
-      <c r="X8" s="7"/>
-      <c r="Y8" s="7"/>
-      <c r="Z8" s="7"/>
-      <c r="AA8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="8"/>
+      <c r="P8" s="8"/>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Y8" s="8"/>
+      <c r="Z8" s="8"/>
+      <c r="AA8" s="8"/>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -732,34 +734,34 @@
       <c r="L16" s="3"/>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="7"/>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="7"/>
-      <c r="P19" s="7"/>
-      <c r="Q19" s="7"/>
-      <c r="R19" s="7"/>
-      <c r="S19" s="7"/>
-      <c r="T19" s="7"/>
-      <c r="U19" s="7"/>
-      <c r="V19" s="7"/>
-      <c r="W19" s="7"/>
-      <c r="X19" s="7"/>
-      <c r="Y19" s="7"/>
-      <c r="Z19" s="7"/>
-      <c r="AA19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="J19" s="8"/>
+      <c r="K19" s="8"/>
+      <c r="L19" s="8"/>
+      <c r="M19" s="8"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="U19" s="8"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="8"/>
+      <c r="X19" s="8"/>
+      <c r="Y19" s="8"/>
+      <c r="Z19" s="8"/>
+      <c r="AA19" s="8"/>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -893,39 +895,39 @@
       <c r="A27" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="7">
         <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B30" s="7" t="s">
+      <c r="B30" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
-      <c r="V30" s="7"/>
-      <c r="W30" s="7"/>
-      <c r="X30" s="7"/>
-      <c r="Y30" s="7"/>
-      <c r="Z30" s="7"/>
-      <c r="AA30" s="7"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+      <c r="I30" s="8"/>
+      <c r="J30" s="8"/>
+      <c r="K30" s="8"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="8"/>
+      <c r="X30" s="8"/>
+      <c r="Y30" s="8"/>
+      <c r="Z30" s="8"/>
+      <c r="AA30" s="8"/>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
@@ -947,34 +949,34 @@
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B35" s="7" t="s">
+      <c r="B35" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-      <c r="K35" s="7"/>
-      <c r="L35" s="7"/>
-      <c r="M35" s="7"/>
-      <c r="N35" s="7"/>
-      <c r="O35" s="7"/>
-      <c r="P35" s="7"/>
-      <c r="Q35" s="7"/>
-      <c r="R35" s="7"/>
-      <c r="S35" s="7"/>
-      <c r="T35" s="7"/>
-      <c r="U35" s="7"/>
-      <c r="V35" s="7"/>
-      <c r="W35" s="7"/>
-      <c r="X35" s="7"/>
-      <c r="Y35" s="7"/>
-      <c r="Z35" s="7"/>
-      <c r="AA35" s="7"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="8"/>
+      <c r="X35" s="8"/>
+      <c r="Y35" s="8"/>
+      <c r="Z35" s="8"/>
+      <c r="AA35" s="8"/>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
@@ -1083,34 +1085,34 @@
       </c>
     </row>
     <row r="45" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B45" s="7" t="s">
+      <c r="B45" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="D45" s="7"/>
-      <c r="E45" s="7"/>
-      <c r="F45" s="7"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="7"/>
-      <c r="Q45" s="7"/>
-      <c r="R45" s="7"/>
-      <c r="S45" s="7"/>
-      <c r="T45" s="7"/>
-      <c r="U45" s="7"/>
-      <c r="V45" s="7"/>
-      <c r="W45" s="7"/>
-      <c r="X45" s="7"/>
-      <c r="Y45" s="7"/>
-      <c r="Z45" s="7"/>
-      <c r="AA45" s="7"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="U45" s="8"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="8"/>
+      <c r="X45" s="8"/>
+      <c r="Y45" s="8"/>
+      <c r="Z45" s="8"/>
+      <c r="AA45" s="8"/>
     </row>
     <row r="46" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
@@ -1164,34 +1166,34 @@
       </c>
     </row>
     <row r="54" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B54" s="7" t="s">
+      <c r="B54" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="7"/>
-      <c r="F54" s="7"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
-      <c r="I54" s="7"/>
-      <c r="J54" s="7"/>
-      <c r="K54" s="7"/>
-      <c r="L54" s="7"/>
-      <c r="M54" s="7"/>
-      <c r="N54" s="7"/>
-      <c r="O54" s="7"/>
-      <c r="P54" s="7"/>
-      <c r="Q54" s="7"/>
-      <c r="R54" s="7"/>
-      <c r="S54" s="7"/>
-      <c r="T54" s="7"/>
-      <c r="U54" s="7"/>
-      <c r="V54" s="7"/>
-      <c r="W54" s="7"/>
-      <c r="X54" s="7"/>
-      <c r="Y54" s="7"/>
-      <c r="Z54" s="7"/>
-      <c r="AA54" s="7"/>
+      <c r="C54" s="8"/>
+      <c r="D54" s="8"/>
+      <c r="E54" s="8"/>
+      <c r="F54" s="8"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="8"/>
+      <c r="I54" s="8"/>
+      <c r="J54" s="8"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="8"/>
+      <c r="Z54" s="8"/>
+      <c r="AA54" s="8"/>
     </row>
     <row r="55" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B55" s="1" t="s">
@@ -1221,34 +1223,34 @@
       </c>
     </row>
     <row r="60" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B60" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7"/>
-      <c r="F60" s="7"/>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
-      <c r="I60" s="7"/>
-      <c r="J60" s="7"/>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="7"/>
-      <c r="N60" s="7"/>
-      <c r="O60" s="7"/>
-      <c r="P60" s="7"/>
-      <c r="Q60" s="7"/>
-      <c r="R60" s="7"/>
-      <c r="S60" s="7"/>
-      <c r="T60" s="7"/>
-      <c r="U60" s="7"/>
-      <c r="V60" s="7"/>
-      <c r="W60" s="7"/>
-      <c r="X60" s="7"/>
-      <c r="Y60" s="7"/>
-      <c r="Z60" s="7"/>
-      <c r="AA60" s="7"/>
+      <c r="B60" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
+      <c r="J60" s="8"/>
+      <c r="K60" s="8"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="8"/>
+      <c r="P60" s="8"/>
+      <c r="Q60" s="8"/>
+      <c r="R60" s="8"/>
+      <c r="S60" s="8"/>
+      <c r="T60" s="8"/>
+      <c r="U60" s="8"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="8"/>
+      <c r="X60" s="8"/>
+      <c r="Y60" s="8"/>
+      <c r="Z60" s="8"/>
+      <c r="AA60" s="8"/>
     </row>
     <row r="61" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B61" s="1" t="s">
@@ -1269,34 +1271,34 @@
       </c>
     </row>
     <row r="66" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B66" s="7" t="s">
+      <c r="B66" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7"/>
-      <c r="F66" s="7"/>
-      <c r="G66" s="7"/>
-      <c r="H66" s="7"/>
-      <c r="I66" s="7"/>
-      <c r="J66" s="7"/>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="7"/>
-      <c r="N66" s="7"/>
-      <c r="O66" s="7"/>
-      <c r="P66" s="7"/>
-      <c r="Q66" s="7"/>
-      <c r="R66" s="7"/>
-      <c r="S66" s="7"/>
-      <c r="T66" s="7"/>
-      <c r="U66" s="7"/>
-      <c r="V66" s="7"/>
-      <c r="W66" s="7"/>
-      <c r="X66" s="7"/>
-      <c r="Y66" s="7"/>
-      <c r="Z66" s="7"/>
-      <c r="AA66" s="7"/>
+      <c r="C66" s="8"/>
+      <c r="D66" s="8"/>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="8"/>
+      <c r="I66" s="8"/>
+      <c r="J66" s="8"/>
+      <c r="K66" s="8"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="8"/>
+      <c r="P66" s="8"/>
+      <c r="Q66" s="8"/>
+      <c r="R66" s="8"/>
+      <c r="S66" s="8"/>
+      <c r="T66" s="8"/>
+      <c r="U66" s="8"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="8"/>
+      <c r="X66" s="8"/>
+      <c r="Y66" s="8"/>
+      <c r="Z66" s="8"/>
+      <c r="AA66" s="8"/>
     </row>
     <row r="67" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B67" s="1" t="s">
@@ -1325,34 +1327,34 @@
       <c r="C70" s="3"/>
     </row>
     <row r="73" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B73" s="7" t="s">
+      <c r="B73" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="7"/>
-      <c r="D73" s="7"/>
-      <c r="E73" s="7"/>
-      <c r="F73" s="7"/>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
-      <c r="I73" s="7"/>
-      <c r="J73" s="7"/>
-      <c r="K73" s="7"/>
-      <c r="L73" s="7"/>
-      <c r="M73" s="7"/>
-      <c r="N73" s="7"/>
-      <c r="O73" s="7"/>
-      <c r="P73" s="7"/>
-      <c r="Q73" s="7"/>
-      <c r="R73" s="7"/>
-      <c r="S73" s="7"/>
-      <c r="T73" s="7"/>
-      <c r="U73" s="7"/>
-      <c r="V73" s="7"/>
-      <c r="W73" s="7"/>
-      <c r="X73" s="7"/>
-      <c r="Y73" s="7"/>
-      <c r="Z73" s="7"/>
-      <c r="AA73" s="7"/>
+      <c r="C73" s="8"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="8"/>
+      <c r="I73" s="8"/>
+      <c r="J73" s="8"/>
+      <c r="K73" s="8"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="8"/>
+      <c r="P73" s="8"/>
+      <c r="Q73" s="8"/>
+      <c r="R73" s="8"/>
+      <c r="S73" s="8"/>
+      <c r="T73" s="8"/>
+      <c r="U73" s="8"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="8"/>
+      <c r="X73" s="8"/>
+      <c r="Y73" s="8"/>
+      <c r="Z73" s="8"/>
+      <c r="AA73" s="8"/>
     </row>
     <row r="74" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B74" s="1" t="s">
@@ -1420,34 +1422,34 @@
       </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B80" s="7" t="s">
+      <c r="B80" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="7"/>
-      <c r="D80" s="7"/>
-      <c r="E80" s="7"/>
-      <c r="F80" s="7"/>
-      <c r="G80" s="7"/>
-      <c r="H80" s="7"/>
-      <c r="I80" s="7"/>
-      <c r="J80" s="7"/>
-      <c r="K80" s="7"/>
-      <c r="L80" s="7"/>
-      <c r="M80" s="7"/>
-      <c r="N80" s="7"/>
-      <c r="O80" s="7"/>
-      <c r="P80" s="7"/>
-      <c r="Q80" s="7"/>
-      <c r="R80" s="7"/>
-      <c r="S80" s="7"/>
-      <c r="T80" s="7"/>
-      <c r="U80" s="7"/>
-      <c r="V80" s="7"/>
-      <c r="W80" s="7"/>
-      <c r="X80" s="7"/>
-      <c r="Y80" s="7"/>
-      <c r="Z80" s="7"/>
-      <c r="AA80" s="7"/>
+      <c r="C80" s="8"/>
+      <c r="D80" s="8"/>
+      <c r="E80" s="8"/>
+      <c r="F80" s="8"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="8"/>
+      <c r="I80" s="8"/>
+      <c r="J80" s="8"/>
+      <c r="K80" s="8"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="8"/>
+      <c r="P80" s="8"/>
+      <c r="Q80" s="8"/>
+      <c r="R80" s="8"/>
+      <c r="S80" s="8"/>
+      <c r="T80" s="8"/>
+      <c r="U80" s="8"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="8"/>
+      <c r="X80" s="8"/>
+      <c r="Y80" s="8"/>
+      <c r="Z80" s="8"/>
+      <c r="AA80" s="8"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B81" s="1" t="s">
